--- a/builds/production/data/maindata.xlsx
+++ b/builds/production/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="golfRevenue" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="foodRevenue" sheetId="3" r:id="rId3"/>
     <sheet name="totalRevenue" sheetId="4" r:id="rId4"/>
     <sheet name="source" sheetId="5" r:id="rId5"/>
+    <sheet name="layout" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="48">
   <si>
     <t>Golf</t>
   </si>
@@ -86,13 +87,94 @@
   </si>
   <si>
     <t>Source: Giant's Ridge</t>
+  </si>
+  <si>
+    <t>golfRevenue</t>
+  </si>
+  <si>
+    <t>skiRevenue</t>
+  </si>
+  <si>
+    <t>foodRevenue</t>
+  </si>
+  <si>
+    <t>totalRevenue</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Giant's Ridge</t>
+  </si>
+  <si>
+    <t>Golf revenue 2004-2014 for Giant's Ridge</t>
+  </si>
+  <si>
+    <t>Ski revenue 2004-2014 for Giant's Ridge</t>
+  </si>
+  <si>
+    <t>Food revenue 2004-2014 for Giant's Ridge</t>
+  </si>
+  <si>
+    <t>Total revenue 2004-2014 for Giant's Ridge</t>
+  </si>
+  <si>
+    <t>Golf revenue categories</t>
+  </si>
+  <si>
+    <t>Skiing revenue categories</t>
+  </si>
+  <si>
+    <t>Food revenue categories</t>
+  </si>
+  <si>
+    <t>Total revenu categories</t>
+  </si>
+  <si>
+    <t>Fiscal year 2004 totals</t>
+  </si>
+  <si>
+    <t>Fiscal year 2005 totals</t>
+  </si>
+  <si>
+    <t>Fiscal year 2006 totals</t>
+  </si>
+  <si>
+    <t>Fiscal year 2007 totals</t>
+  </si>
+  <si>
+    <t>Fiscal year 2008 totals</t>
+  </si>
+  <si>
+    <t>Fiscal year 2009 totals</t>
+  </si>
+  <si>
+    <t>Fiscal year 2010 totals</t>
+  </si>
+  <si>
+    <t>Fiscal year 2011 totals</t>
+  </si>
+  <si>
+    <t>Fiscal year 2012 totals</t>
+  </si>
+  <si>
+    <t>Fiscal year 2013 totals</t>
+  </si>
+  <si>
+    <t>Fiscal year 2014 totals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -105,6 +187,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -125,17 +225,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,170 +649,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4">
+      <c r="B2" s="3">
         <v>2496530</v>
       </c>
-      <c r="D2" s="4">
+      <c r="C2" s="3">
         <v>2220683</v>
       </c>
-      <c r="E2" s="4">
+      <c r="D2" s="3">
         <v>2249462</v>
       </c>
-      <c r="F2" s="4">
+      <c r="E2" s="3">
         <v>1974797</v>
       </c>
-      <c r="G2" s="4">
+      <c r="F2" s="3">
         <v>2329847</v>
       </c>
-      <c r="H2" s="4">
+      <c r="G2" s="3">
         <v>1944196</v>
       </c>
-      <c r="I2" s="4">
+      <c r="H2" s="3">
         <v>1873411</v>
       </c>
-      <c r="J2" s="4">
+      <c r="I2" s="3">
         <v>1619605</v>
       </c>
-      <c r="K2" s="4">
+      <c r="J2" s="3">
         <v>1429632</v>
       </c>
-      <c r="L2" s="4">
+      <c r="K2" s="3">
         <v>1566076</v>
       </c>
-      <c r="M2" s="4">
+      <c r="L2" s="3">
         <v>1607387</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4">
+      <c r="B3" s="3">
         <v>2558557</v>
       </c>
-      <c r="D3" s="4">
+      <c r="C3" s="3">
         <v>2691538</v>
       </c>
-      <c r="E3" s="4">
+      <c r="D3" s="3">
         <v>2864798</v>
       </c>
-      <c r="F3" s="4">
+      <c r="E3" s="3">
         <v>2846349</v>
       </c>
-      <c r="G3" s="4">
+      <c r="F3" s="3">
         <v>2744608</v>
       </c>
-      <c r="H3" s="4">
+      <c r="G3" s="3">
         <v>2911373</v>
       </c>
-      <c r="I3" s="4">
+      <c r="H3" s="3">
         <v>3041703</v>
       </c>
-      <c r="J3" s="4">
+      <c r="I3" s="3">
         <v>2811102</v>
       </c>
-      <c r="K3" s="4">
+      <c r="J3" s="3">
         <v>2432532</v>
       </c>
-      <c r="L3" s="4">
+      <c r="K3" s="3">
         <v>3628853</v>
       </c>
-      <c r="M3" s="4">
+      <c r="L3" s="3">
         <v>4358926</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4">
+      <c r="B4" s="3">
         <v>-62027</v>
       </c>
-      <c r="D4" s="4">
+      <c r="C4" s="3">
         <v>-470855</v>
       </c>
-      <c r="E4" s="4">
+      <c r="D4" s="3">
         <v>-615336</v>
       </c>
-      <c r="F4" s="4">
+      <c r="E4" s="3">
         <v>-871552</v>
       </c>
-      <c r="G4" s="4">
+      <c r="F4" s="3">
         <v>-726044</v>
       </c>
-      <c r="H4" s="4">
+      <c r="G4" s="3">
         <v>-967177</v>
       </c>
-      <c r="I4" s="4">
+      <c r="H4" s="3">
         <v>-1168292</v>
       </c>
-      <c r="J4" s="4">
+      <c r="I4" s="3">
         <v>-1191497</v>
       </c>
-      <c r="K4" s="4">
+      <c r="J4" s="3">
         <v>-1152065</v>
       </c>
-      <c r="L4" s="4">
+      <c r="K4" s="3">
         <v>-2200950</v>
       </c>
-      <c r="M4" s="4">
+      <c r="L4" s="3">
         <v>-2899011</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -639,170 +822,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4">
+      <c r="B2" s="3">
         <v>1274342</v>
       </c>
-      <c r="D2" s="4">
+      <c r="C2" s="3">
         <v>1238880</v>
       </c>
-      <c r="E2" s="4">
+      <c r="D2" s="3">
         <v>1342906</v>
       </c>
-      <c r="F2" s="4">
+      <c r="E2" s="3">
         <v>1225907</v>
       </c>
-      <c r="G2" s="4">
+      <c r="F2" s="3">
         <v>1328860</v>
       </c>
-      <c r="H2" s="4">
+      <c r="G2" s="3">
         <v>1246694</v>
       </c>
-      <c r="I2" s="4">
+      <c r="H2" s="3">
         <v>1247332</v>
       </c>
-      <c r="J2" s="4">
+      <c r="I2" s="3">
         <v>1311932</v>
       </c>
-      <c r="K2" s="4">
+      <c r="J2" s="3">
         <v>1179649</v>
       </c>
-      <c r="L2" s="4">
+      <c r="K2" s="3">
         <v>1248845</v>
       </c>
-      <c r="M2" s="4">
+      <c r="L2" s="3">
         <v>1211289</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4">
+      <c r="B3" s="3">
         <v>1888990</v>
       </c>
-      <c r="D3" s="4">
+      <c r="C3" s="3">
         <v>1857895</v>
       </c>
-      <c r="E3" s="4">
+      <c r="D3" s="3">
         <v>1990158</v>
       </c>
-      <c r="F3" s="4">
+      <c r="E3" s="3">
         <v>2061601</v>
       </c>
-      <c r="G3" s="4">
+      <c r="F3" s="3">
         <v>2154424</v>
       </c>
-      <c r="H3" s="4">
+      <c r="G3" s="3">
         <v>2245429</v>
       </c>
-      <c r="I3" s="4">
+      <c r="H3" s="3">
         <v>2349737</v>
       </c>
-      <c r="J3" s="4">
+      <c r="I3" s="3">
         <v>2641637</v>
       </c>
-      <c r="K3" s="4">
+      <c r="J3" s="3">
         <v>2388164</v>
       </c>
-      <c r="L3" s="4">
+      <c r="K3" s="3">
         <v>2027698</v>
       </c>
-      <c r="M3" s="4">
+      <c r="L3" s="3">
         <v>3209919</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4">
+      <c r="B4" s="3">
         <v>-614648</v>
       </c>
-      <c r="D4" s="4">
+      <c r="C4" s="3">
         <v>-619015</v>
       </c>
-      <c r="E4" s="4">
+      <c r="D4" s="3">
         <v>-647252</v>
       </c>
-      <c r="F4" s="4">
+      <c r="E4" s="3">
         <v>-835694</v>
       </c>
-      <c r="G4" s="4">
+      <c r="F4" s="3">
         <v>-825564</v>
       </c>
-      <c r="H4" s="4">
+      <c r="G4" s="3">
         <v>-998735</v>
       </c>
-      <c r="I4" s="4">
+      <c r="H4" s="3">
         <v>-1102405</v>
       </c>
-      <c r="J4" s="4">
+      <c r="I4" s="3">
         <v>-1329705</v>
       </c>
-      <c r="K4" s="4">
+      <c r="J4" s="3">
         <v>-1208514</v>
       </c>
-      <c r="L4" s="4">
+      <c r="K4" s="3">
         <v>-778853</v>
       </c>
-      <c r="M4" s="4">
+      <c r="L4" s="3">
         <v>-1998630</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -813,170 +995,169 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4">
+      <c r="B2" s="3">
         <v>683056</v>
       </c>
-      <c r="D2" s="4">
+      <c r="C2" s="3">
         <v>704991</v>
       </c>
-      <c r="E2" s="4">
+      <c r="D2" s="3">
         <v>861950</v>
       </c>
-      <c r="F2" s="4">
+      <c r="E2" s="3">
         <v>846546</v>
       </c>
-      <c r="G2" s="4">
+      <c r="F2" s="3">
         <v>869057</v>
       </c>
-      <c r="H2" s="4">
+      <c r="G2" s="3">
         <v>849947</v>
       </c>
-      <c r="I2" s="4">
+      <c r="H2" s="3">
         <v>899652</v>
       </c>
-      <c r="J2" s="4">
+      <c r="I2" s="3">
         <v>903585</v>
       </c>
-      <c r="K2" s="4">
+      <c r="J2" s="3">
         <v>1229732</v>
       </c>
-      <c r="L2" s="4">
+      <c r="K2" s="3">
         <v>1623512</v>
       </c>
-      <c r="M2" s="4">
+      <c r="L2" s="3">
         <v>1386402</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4">
+      <c r="B3" s="3">
         <v>679411</v>
       </c>
-      <c r="D3" s="4">
+      <c r="C3" s="3">
         <v>650198</v>
       </c>
-      <c r="E3" s="4">
+      <c r="D3" s="3">
         <v>799943</v>
       </c>
-      <c r="F3" s="4">
+      <c r="E3" s="3">
         <v>867704</v>
       </c>
-      <c r="G3" s="4">
+      <c r="F3" s="3">
         <v>831991</v>
       </c>
-      <c r="H3" s="4">
+      <c r="G3" s="3">
         <v>830732</v>
       </c>
-      <c r="I3" s="4">
+      <c r="H3" s="3">
         <v>877554</v>
       </c>
-      <c r="J3" s="4">
+      <c r="I3" s="3">
         <v>949462</v>
       </c>
-      <c r="K3" s="4">
+      <c r="J3" s="3">
         <v>1072797</v>
       </c>
-      <c r="L3" s="4">
+      <c r="K3" s="3">
         <v>1250803</v>
       </c>
-      <c r="M3" s="4">
+      <c r="L3" s="3">
         <v>1145153</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4">
+      <c r="B4" s="3">
         <v>3645</v>
       </c>
-      <c r="D4" s="4">
+      <c r="C4" s="3">
         <v>54793</v>
       </c>
-      <c r="E4" s="4">
+      <c r="D4" s="3">
         <v>62007</v>
       </c>
-      <c r="F4" s="4">
+      <c r="E4" s="3">
         <v>-21158</v>
       </c>
-      <c r="G4" s="4">
+      <c r="F4" s="3">
         <v>37066</v>
       </c>
-      <c r="H4" s="4">
+      <c r="G4" s="3">
         <v>19215</v>
       </c>
-      <c r="I4" s="4">
+      <c r="H4" s="3">
         <v>22098</v>
       </c>
-      <c r="J4" s="4">
+      <c r="I4" s="3">
         <v>-45877</v>
       </c>
-      <c r="K4" s="4">
+      <c r="J4" s="3">
         <v>-414275</v>
       </c>
-      <c r="L4" s="4">
+      <c r="K4" s="3">
         <v>-378726</v>
       </c>
-      <c r="M4" s="4">
+      <c r="L4" s="3">
         <v>-390319</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -987,170 +1168,169 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4">
+      <c r="B2" s="3">
         <v>4879940</v>
       </c>
-      <c r="D2" s="4">
+      <c r="C2" s="3">
         <v>4988255</v>
       </c>
-      <c r="E2" s="4">
+      <c r="D2" s="3">
         <v>4635224</v>
       </c>
-      <c r="F2" s="4">
+      <c r="E2" s="3">
         <v>4070365</v>
       </c>
-      <c r="G2" s="4">
+      <c r="F2" s="3">
         <v>4220762</v>
       </c>
-      <c r="H2" s="4">
+      <c r="G2" s="3">
         <v>4115989</v>
       </c>
-      <c r="I2" s="4">
+      <c r="H2" s="3">
         <v>4057334</v>
       </c>
-      <c r="J2" s="4">
+      <c r="I2" s="3">
         <v>3833900</v>
       </c>
-      <c r="K2" s="4">
+      <c r="J2" s="3">
         <v>3858230</v>
       </c>
-      <c r="L2" s="4">
+      <c r="K2" s="3">
         <v>4469293</v>
       </c>
-      <c r="M2" s="4">
+      <c r="L2" s="3">
         <v>4198547</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4">
+      <c r="B3" s="3">
         <v>5621900</v>
       </c>
-      <c r="D3" s="4">
+      <c r="C3" s="3">
         <v>5741211</v>
       </c>
-      <c r="E3" s="4">
+      <c r="D3" s="3">
         <v>6911566</v>
       </c>
-      <c r="F3" s="4">
+      <c r="E3" s="3">
         <v>6949718</v>
       </c>
-      <c r="G3" s="4">
+      <c r="F3" s="3">
         <v>7365629</v>
       </c>
-      <c r="H3" s="4">
+      <c r="G3" s="3">
         <v>9022966</v>
       </c>
-      <c r="I3" s="4">
+      <c r="H3" s="3">
         <v>8154480</v>
       </c>
-      <c r="J3" s="4">
+      <c r="I3" s="3">
         <v>16545433</v>
       </c>
-      <c r="K3" s="4">
+      <c r="J3" s="3">
         <v>6476591</v>
       </c>
-      <c r="L3" s="4">
+      <c r="K3" s="3">
         <v>7139939</v>
       </c>
-      <c r="M3" s="4">
+      <c r="L3" s="3">
         <v>8503626</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4">
+      <c r="B4" s="3">
         <v>-741959</v>
       </c>
-      <c r="D4" s="4">
+      <c r="C4" s="3">
         <v>-752955</v>
       </c>
-      <c r="E4" s="4">
+      <c r="D4" s="3">
         <v>-2276341</v>
       </c>
-      <c r="F4" s="4">
+      <c r="E4" s="3">
         <v>-2879353</v>
       </c>
-      <c r="G4" s="4">
+      <c r="F4" s="3">
         <v>-3144866</v>
       </c>
-      <c r="H4" s="4">
+      <c r="G4" s="3">
         <v>-4906977</v>
       </c>
-      <c r="I4" s="4">
+      <c r="H4" s="3">
         <v>-4097146</v>
       </c>
-      <c r="J4" s="4">
+      <c r="I4" s="3">
         <v>-12711532</v>
       </c>
-      <c r="K4" s="4">
+      <c r="J4" s="3">
         <v>-2618361</v>
       </c>
-      <c r="L4" s="4">
+      <c r="K4" s="3">
         <v>-2670646</v>
       </c>
-      <c r="M4" s="4">
+      <c r="L4" s="3">
         <v>-4305079</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1161,26 +1341,513 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2015</v>
       </c>
     </row>
+    <row r="6" spans="1:3" s="4" customFormat="1">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" s="4" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
